--- a/material/Knowledge Vectors vs. Spheres.xlsx
+++ b/material/Knowledge Vectors vs. Spheres.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kydroon/Development/cognitive-devolution/material/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{550A102B-D214-0D41-BB59-4D41FA50A3A9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE15500C-476C-C241-93E4-1080FDB48659}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="29300" yWindow="11880" windowWidth="28040" windowHeight="17440" xr2:uid="{87B1C627-E6D2-4640-8F4D-6C125AF94511}"/>
+    <workbookView xWindow="29300" yWindow="11880" windowWidth="28040" windowHeight="17440" activeTab="1" xr2:uid="{87B1C627-E6D2-4640-8F4D-6C125AF94511}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="32">
   <si>
     <t>R</t>
   </si>
@@ -96,19 +97,61 @@
   </si>
   <si>
     <t>Silizium</t>
+  </si>
+  <si>
+    <t>Budget R Effective Power</t>
+  </si>
+  <si>
+    <t>Efficiency</t>
+  </si>
+  <si>
+    <t>1800 1B 1% 210 MW 0.80 168 MW 80%</t>
+  </si>
+  <si>
+    <t>1950 2.5B 10% 5.25 GW 0.50 2.6 GW 50%</t>
+  </si>
+  <si>
+    <t>2024 8B 40% 67.2 GW 0.10 6.7 GW 10%</t>
+  </si>
+  <si>
+    <t>2040* 9B 50% 94.5 GW 0.04* 3.8 GW* 4%*</t>
+  </si>
+  <si>
+    <t>2060* 10B 60% 126 GW 0.008* 1.0 GW* ¡1%*</t>
+  </si>
+  <si>
+    <t>Era</t>
+  </si>
+  <si>
+    <t>Population</t>
+  </si>
+  <si>
+    <t>Knowledge Workers</t>
+  </si>
+  <si>
+    <t>Cognitive Budget</t>
+  </si>
+  <si>
+    <t>Effective Power</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Helvetica"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -131,8 +174,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -469,8 +513,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8598BAA0-A60F-4940-86E6-955DFDD5BA15}">
   <dimension ref="A1:F7"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="137" zoomScaleNormal="137" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+    <sheetView zoomScale="137" zoomScaleNormal="137" workbookViewId="0">
+      <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -597,4 +641,102 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{41F3AE13-0854-8D4C-837B-3AE86A352C0E}">
+  <dimension ref="A1:G8"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="224" zoomScaleNormal="224" workbookViewId="0">
+      <selection activeCell="G1" sqref="G1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="3" max="3" width="17.1640625" customWidth="1"/>
+    <col min="4" max="4" width="14.33203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D1" t="s">
+        <v>30</v>
+      </c>
+      <c r="E1" t="s">
+        <v>0</v>
+      </c>
+      <c r="F1" t="s">
+        <v>31</v>
+      </c>
+      <c r="G1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A3" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A4" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A5" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A6" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A7" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A8" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>